--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H2">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I2">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J2">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.240368</v>
       </c>
       <c r="O2">
-        <v>0.002208613063529849</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="P2">
-        <v>0.002208613063529849</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="Q2">
-        <v>5.295585893587555</v>
+        <v>4.734681610415999</v>
       </c>
       <c r="R2">
-        <v>47.66027304228799</v>
+        <v>42.61213449374399</v>
       </c>
       <c r="S2">
-        <v>0.001574388536223211</v>
+        <v>0.003168385581173059</v>
       </c>
       <c r="T2">
-        <v>0.001574388536223211</v>
+        <v>0.003168385581173059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H3">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I3">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J3">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.488282</v>
+        <v>5.912158333333333</v>
       </c>
       <c r="N3">
-        <v>64.46484600000001</v>
+        <v>17.736475</v>
       </c>
       <c r="O3">
-        <v>0.5923330102760765</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="P3">
-        <v>0.5923330102760765</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="Q3">
-        <v>1420.235343764121</v>
+        <v>349.366646209575</v>
       </c>
       <c r="R3">
-        <v>12782.11809387709</v>
+        <v>3144.299815886175</v>
       </c>
       <c r="S3">
-        <v>0.4222388776034861</v>
+        <v>0.2337914849349183</v>
       </c>
       <c r="T3">
-        <v>0.4222388776034861</v>
+        <v>0.2337914849349182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H4">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I4">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J4">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04165866666666667</v>
+        <v>11.59861933333333</v>
       </c>
       <c r="N4">
-        <v>0.124976</v>
+        <v>34.795858</v>
       </c>
       <c r="O4">
-        <v>0.001148337658206194</v>
+        <v>0.6593533652939235</v>
       </c>
       <c r="P4">
-        <v>0.001148337658206194</v>
+        <v>0.6593533652939234</v>
       </c>
       <c r="Q4">
-        <v>2.753366266046223</v>
+        <v>685.3961799875458</v>
       </c>
       <c r="R4">
-        <v>24.780296394416</v>
+        <v>6168.565619887912</v>
       </c>
       <c r="S4">
-        <v>0.0008185814322332093</v>
+        <v>0.45865795268815</v>
       </c>
       <c r="T4">
-        <v>0.0008185814322332091</v>
+        <v>0.45865795268815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.09348033333333</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H5">
-        <v>198.280441</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I5">
-        <v>0.7128403622257816</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J5">
-        <v>0.7128403622257816</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>14.66730366666667</v>
+        <v>0.08012266666666666</v>
       </c>
       <c r="N5">
-        <v>44.00191100000001</v>
+        <v>0.240368</v>
       </c>
       <c r="O5">
-        <v>0.4043100390021874</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="P5">
-        <v>0.4043100390021874</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="Q5">
-        <v>969.4131464358613</v>
+        <v>0.2307101205902222</v>
       </c>
       <c r="R5">
-        <v>8724.718317922752</v>
+        <v>2.076391085312</v>
       </c>
       <c r="S5">
-        <v>0.2882085146538392</v>
+        <v>0.0001543881256768462</v>
       </c>
       <c r="T5">
-        <v>0.2882085146538391</v>
+        <v>0.0001543881256768461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,43 +791,43 @@
         <v>2.879461333333333</v>
       </c>
       <c r="H6">
-        <v>8.638384</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I6">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J6">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08012266666666666</v>
+        <v>5.912158333333333</v>
       </c>
       <c r="N6">
-        <v>0.240368</v>
+        <v>17.736475</v>
       </c>
       <c r="O6">
-        <v>0.002208613063529849</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="P6">
-        <v>0.002208613063529849</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="Q6">
-        <v>0.2307101205902222</v>
+        <v>17.02383131737778</v>
       </c>
       <c r="R6">
-        <v>2.076391085312</v>
+        <v>153.2144818564</v>
       </c>
       <c r="S6">
-        <v>6.85905915505504E-05</v>
+        <v>0.01139212012981861</v>
       </c>
       <c r="T6">
-        <v>6.859059155055038E-05</v>
+        <v>0.01139212012981861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,13 +853,13 @@
         <v>2.879461333333333</v>
       </c>
       <c r="H7">
-        <v>8.638384</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I7">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J7">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.488282</v>
+        <v>11.59861933333333</v>
       </c>
       <c r="N7">
-        <v>64.46484600000001</v>
+        <v>34.795858</v>
       </c>
       <c r="O7">
-        <v>0.5923330102760765</v>
+        <v>0.6593533652939235</v>
       </c>
       <c r="P7">
-        <v>0.5923330102760765</v>
+        <v>0.6593533652939234</v>
       </c>
       <c r="Q7">
-        <v>61.87467713876267</v>
+        <v>33.39777589038577</v>
       </c>
       <c r="R7">
-        <v>556.8720942488641</v>
+        <v>300.5799830134719</v>
       </c>
       <c r="S7">
-        <v>0.01839546828760539</v>
+        <v>0.02234934474612965</v>
       </c>
       <c r="T7">
-        <v>0.01839546828760539</v>
+        <v>0.02234934474612965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.879461333333333</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H8">
-        <v>8.638384</v>
+        <v>2.256861</v>
       </c>
       <c r="I8">
-        <v>0.0310559566468051</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J8">
-        <v>0.0310559566468051</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04165866666666667</v>
+        <v>0.08012266666666666</v>
       </c>
       <c r="N8">
-        <v>0.124976</v>
+        <v>0.240368</v>
       </c>
       <c r="O8">
-        <v>0.001148337658206194</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="P8">
-        <v>0.001148337658206194</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="Q8">
-        <v>0.1199545198648889</v>
+        <v>0.06027524053866665</v>
       </c>
       <c r="R8">
-        <v>1.079590678784</v>
+        <v>0.5424771648479999</v>
       </c>
       <c r="S8">
-        <v>3.566272452914526E-05</v>
+        <v>4.033538445421884E-05</v>
       </c>
       <c r="T8">
-        <v>3.566272452914526E-05</v>
+        <v>4.033538445421883E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.879461333333333</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H9">
-        <v>8.638384</v>
+        <v>2.256861</v>
       </c>
       <c r="I9">
-        <v>0.0310559566468051</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J9">
-        <v>0.0310559566468051</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.66730366666667</v>
+        <v>5.912158333333333</v>
       </c>
       <c r="N9">
-        <v>44.00191100000001</v>
+        <v>17.736475</v>
       </c>
       <c r="O9">
-        <v>0.4043100390021874</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="P9">
-        <v>0.4043100390021874</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="Q9">
-        <v>42.2339337724249</v>
+        <v>4.447639856108333</v>
       </c>
       <c r="R9">
-        <v>380.1054039518241</v>
+        <v>40.02875870497499</v>
       </c>
       <c r="S9">
-        <v>0.01255623504312001</v>
+        <v>0.002976301079959233</v>
       </c>
       <c r="T9">
-        <v>0.01255623504312001</v>
+        <v>0.002976301079959233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.566549333333333</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H10">
-        <v>7.699648</v>
+        <v>2.256861</v>
       </c>
       <c r="I10">
-        <v>0.02768109573314402</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J10">
-        <v>0.02768109573314402</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08012266666666666</v>
+        <v>11.59861933333333</v>
       </c>
       <c r="N10">
-        <v>0.240368</v>
+        <v>34.795858</v>
       </c>
       <c r="O10">
-        <v>0.002208613063529849</v>
+        <v>0.6593533652939235</v>
       </c>
       <c r="P10">
-        <v>0.002208613063529849</v>
+        <v>0.6593533652939234</v>
       </c>
       <c r="Q10">
-        <v>0.2056387767182222</v>
+        <v>8.725490542415331</v>
       </c>
       <c r="R10">
-        <v>1.850748990464</v>
+        <v>78.52941488173798</v>
       </c>
       <c r="S10">
-        <v>6.113682964904225E-05</v>
+        <v>0.005838981519355347</v>
       </c>
       <c r="T10">
-        <v>6.113682964904223E-05</v>
+        <v>0.005838981519355346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.566549333333333</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H11">
-        <v>7.699648</v>
+        <v>65.875697</v>
       </c>
       <c r="I11">
-        <v>0.02768109573314402</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J11">
-        <v>0.02768109573314402</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>21.488282</v>
+        <v>0.08012266666666666</v>
       </c>
       <c r="N11">
-        <v>64.46484600000001</v>
+        <v>0.240368</v>
       </c>
       <c r="O11">
-        <v>0.5923330102760765</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="P11">
-        <v>0.5923330102760765</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="Q11">
-        <v>55.15073584157867</v>
+        <v>1.759378837388444</v>
       </c>
       <c r="R11">
-        <v>496.3566225742081</v>
+        <v>15.834409536496</v>
       </c>
       <c r="S11">
-        <v>0.01639642676335346</v>
+        <v>0.001177352776570923</v>
       </c>
       <c r="T11">
-        <v>0.01639642676335346</v>
+        <v>0.001177352776570923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.566549333333333</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H12">
-        <v>7.699648</v>
+        <v>65.875697</v>
       </c>
       <c r="I12">
-        <v>0.02768109573314402</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J12">
-        <v>0.02768109573314402</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04165866666666667</v>
+        <v>5.912158333333333</v>
       </c>
       <c r="N12">
-        <v>0.124976</v>
+        <v>17.736475</v>
       </c>
       <c r="O12">
-        <v>0.001148337658206194</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="P12">
-        <v>0.001148337658206194</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="Q12">
-        <v>0.1069190231608889</v>
+        <v>129.8225169942306</v>
       </c>
       <c r="R12">
-        <v>0.962271208448</v>
+        <v>1168.402652948075</v>
       </c>
       <c r="S12">
-        <v>3.178724465078008E-05</v>
+        <v>0.08687549127933322</v>
       </c>
       <c r="T12">
-        <v>3.178724465078007E-05</v>
+        <v>0.08687549127933321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.566549333333333</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H13">
-        <v>7.699648</v>
+        <v>65.875697</v>
       </c>
       <c r="I13">
-        <v>0.02768109573314402</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J13">
-        <v>0.02768109573314402</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.66730366666667</v>
+        <v>11.59861933333333</v>
       </c>
       <c r="N13">
-        <v>44.00191100000001</v>
+        <v>34.795858</v>
       </c>
       <c r="O13">
-        <v>0.4043100390021874</v>
+        <v>0.6593533652939235</v>
       </c>
       <c r="P13">
-        <v>0.4043100390021874</v>
+        <v>0.6593533652939234</v>
       </c>
       <c r="Q13">
-        <v>37.64435844748089</v>
+        <v>254.6890442736695</v>
       </c>
       <c r="R13">
-        <v>338.799226027328</v>
+        <v>2292.201398463026</v>
       </c>
       <c r="S13">
-        <v>0.01119174489549074</v>
+        <v>0.1704345005552635</v>
       </c>
       <c r="T13">
-        <v>0.01119174489549074</v>
+        <v>0.1704345005552635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>20.10853233333334</v>
+        <v>0.2670293333333333</v>
       </c>
       <c r="H14">
-        <v>60.32559700000001</v>
+        <v>0.801088</v>
       </c>
       <c r="I14">
-        <v>0.2168772683785111</v>
+        <v>0.003143361199197195</v>
       </c>
       <c r="J14">
-        <v>0.2168772683785111</v>
+        <v>0.003143361199197195</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.240368</v>
       </c>
       <c r="O14">
-        <v>0.002208613063529849</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="P14">
-        <v>0.002208613063529849</v>
+        <v>0.004554779184033048</v>
       </c>
       <c r="Q14">
-        <v>1.611149233299556</v>
+        <v>0.02139510226488889</v>
       </c>
       <c r="R14">
-        <v>14.500343099696</v>
+        <v>0.192555920384</v>
       </c>
       <c r="S14">
-        <v>0.0004789979681234487</v>
+        <v>1.431731615800054E-05</v>
       </c>
       <c r="T14">
-        <v>0.0004789979681234486</v>
+        <v>1.431731615800054E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>20.10853233333334</v>
+        <v>0.2670293333333333</v>
       </c>
       <c r="H15">
-        <v>60.32559700000001</v>
+        <v>0.801088</v>
       </c>
       <c r="I15">
-        <v>0.2168772683785111</v>
+        <v>0.003143361199197195</v>
       </c>
       <c r="J15">
-        <v>0.2168772683785111</v>
+        <v>0.003143361199197195</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.488282</v>
+        <v>5.912158333333333</v>
       </c>
       <c r="N15">
-        <v>64.46484600000001</v>
+        <v>17.736475</v>
       </c>
       <c r="O15">
-        <v>0.5923330102760765</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="P15">
-        <v>0.5923330102760765</v>
+        <v>0.3360918555220435</v>
       </c>
       <c r="Q15">
-        <v>432.0978133847848</v>
+        <v>1.578719698311111</v>
       </c>
       <c r="R15">
-        <v>3888.880320463063</v>
+        <v>14.2084772848</v>
       </c>
       <c r="S15">
-        <v>0.128463565239096</v>
+        <v>0.001056458098014181</v>
       </c>
       <c r="T15">
-        <v>0.128463565239096</v>
+        <v>0.001056458098014181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>20.10853233333334</v>
+        <v>0.2670293333333333</v>
       </c>
       <c r="H16">
-        <v>60.32559700000001</v>
+        <v>0.801088</v>
       </c>
       <c r="I16">
-        <v>0.2168772683785111</v>
+        <v>0.003143361199197195</v>
       </c>
       <c r="J16">
-        <v>0.2168772683785111</v>
+        <v>0.003143361199197195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.04165866666666667</v>
+        <v>11.59861933333333</v>
       </c>
       <c r="N16">
-        <v>0.124976</v>
+        <v>34.795858</v>
       </c>
       <c r="O16">
-        <v>0.001148337658206194</v>
+        <v>0.6593533652939235</v>
       </c>
       <c r="P16">
-        <v>0.001148337658206194</v>
+        <v>0.6593533652939234</v>
       </c>
       <c r="Q16">
-        <v>0.8376946456302224</v>
+        <v>3.097171588167111</v>
       </c>
       <c r="R16">
-        <v>7.539251810672002</v>
+        <v>27.874544293504</v>
       </c>
       <c r="S16">
-        <v>0.0002490483344879357</v>
+        <v>0.002072585785025013</v>
       </c>
       <c r="T16">
-        <v>0.0002490483344879356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>20.10853233333334</v>
-      </c>
-      <c r="H17">
-        <v>60.32559700000001</v>
-      </c>
-      <c r="I17">
-        <v>0.2168772683785111</v>
-      </c>
-      <c r="J17">
-        <v>0.2168772683785111</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>14.66730366666667</v>
-      </c>
-      <c r="N17">
-        <v>44.00191100000001</v>
-      </c>
-      <c r="O17">
-        <v>0.4043100390021874</v>
-      </c>
-      <c r="P17">
-        <v>0.4043100390021874</v>
-      </c>
-      <c r="Q17">
-        <v>294.9379500239853</v>
-      </c>
-      <c r="R17">
-        <v>2654.441550215868</v>
-      </c>
-      <c r="S17">
-        <v>0.0876856568368037</v>
-      </c>
-      <c r="T17">
-        <v>0.08768565683680368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>1.070464333333333</v>
-      </c>
-      <c r="H18">
-        <v>3.211393</v>
-      </c>
-      <c r="I18">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="J18">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.08012266666666666</v>
-      </c>
-      <c r="N18">
-        <v>0.240368</v>
-      </c>
-      <c r="O18">
-        <v>0.002208613063529849</v>
-      </c>
-      <c r="P18">
-        <v>0.002208613063529849</v>
-      </c>
-      <c r="Q18">
-        <v>0.08576845695822223</v>
-      </c>
-      <c r="R18">
-        <v>0.771916112624</v>
-      </c>
-      <c r="S18">
-        <v>2.549913798359702E-05</v>
-      </c>
-      <c r="T18">
-        <v>2.549913798359701E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>1.070464333333333</v>
-      </c>
-      <c r="H19">
-        <v>3.211393</v>
-      </c>
-      <c r="I19">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="J19">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.488282</v>
-      </c>
-      <c r="N19">
-        <v>64.46484600000001</v>
-      </c>
-      <c r="O19">
-        <v>0.5923330102760765</v>
-      </c>
-      <c r="P19">
-        <v>0.5923330102760765</v>
-      </c>
-      <c r="Q19">
-        <v>23.00243946560867</v>
-      </c>
-      <c r="R19">
-        <v>207.021955190478</v>
-      </c>
-      <c r="S19">
-        <v>0.006838672382535664</v>
-      </c>
-      <c r="T19">
-        <v>0.006838672382535663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>1.070464333333333</v>
-      </c>
-      <c r="H20">
-        <v>3.211393</v>
-      </c>
-      <c r="I20">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="J20">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.04165866666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.124976</v>
-      </c>
-      <c r="O20">
-        <v>0.001148337658206194</v>
-      </c>
-      <c r="P20">
-        <v>0.001148337658206194</v>
-      </c>
-      <c r="Q20">
-        <v>0.0445941168408889</v>
-      </c>
-      <c r="R20">
-        <v>0.401347051568</v>
-      </c>
-      <c r="S20">
-        <v>1.32579223051239E-05</v>
-      </c>
-      <c r="T20">
-        <v>1.325792230512389E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>1.070464333333333</v>
-      </c>
-      <c r="H21">
-        <v>3.211393</v>
-      </c>
-      <c r="I21">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="J21">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.66730366666667</v>
-      </c>
-      <c r="N21">
-        <v>44.00191100000001</v>
-      </c>
-      <c r="O21">
-        <v>0.4043100390021874</v>
-      </c>
-      <c r="P21">
-        <v>0.4043100390021874</v>
-      </c>
-      <c r="Q21">
-        <v>15.70082544133589</v>
-      </c>
-      <c r="R21">
-        <v>141.307428972023</v>
-      </c>
-      <c r="S21">
-        <v>0.004667887572933817</v>
-      </c>
-      <c r="T21">
-        <v>0.004667887572933815</v>
+        <v>0.002072585785025013</v>
       </c>
     </row>
   </sheetData>
